--- a/www/IndicatorsPerCountry/Ghana_GDPperCapita_TerritorialRef_1957_2012_CCode_288.xlsx
+++ b/www/IndicatorsPerCountry/Ghana_GDPperCapita_TerritorialRef_1957_2012_CCode_288.xlsx
@@ -252,13 +252,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Ghana_GDPperCapita_TerritorialRef_1957_2012_CCode_288.xlsx
+++ b/www/IndicatorsPerCountry/Ghana_GDPperCapita_TerritorialRef_1957_2012_CCode_288.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="88">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,193 +36,211 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>439</t>
+    <t>700</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>781</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>1134</t>
-  </si>
-  <si>
-    <t>1084</t>
-  </si>
-  <si>
-    <t>1202</t>
-  </si>
-  <si>
-    <t>1317</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>1236</t>
-  </si>
-  <si>
-    <t>1241</t>
-  </si>
-  <si>
-    <t>1187</t>
-  </si>
-  <si>
-    <t>1321</t>
-  </si>
-  <si>
-    <t>1378</t>
-  </si>
-  <si>
-    <t>1388</t>
-  </si>
-  <si>
-    <t>1416</t>
-  </si>
-  <si>
-    <t>1424</t>
-  </si>
-  <si>
-    <t>1414</t>
-  </si>
-  <si>
-    <t>1393</t>
-  </si>
-  <si>
-    <t>1354</t>
-  </si>
-  <si>
-    <t>1339</t>
-  </si>
-  <si>
-    <t>1318</t>
-  </si>
-  <si>
-    <t>1325</t>
-  </si>
-  <si>
-    <t>1491</t>
-  </si>
-  <si>
-    <t>1402</t>
-  </si>
-  <si>
-    <t>1397</t>
-  </si>
-  <si>
-    <t>1455</t>
-  </si>
-  <si>
-    <t>1247</t>
-  </si>
-  <si>
-    <t>1178</t>
-  </si>
-  <si>
-    <t>1181</t>
-  </si>
-  <si>
-    <t>1260</t>
-  </si>
-  <si>
-    <t>1210</t>
-  </si>
-  <si>
-    <t>1157</t>
-  </si>
-  <si>
-    <t>1142</t>
-  </si>
-  <si>
-    <t>1042</t>
-  </si>
-  <si>
-    <t>933</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
-    <t>978</t>
-  </si>
-  <si>
-    <t>988</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>1034</t>
-  </si>
-  <si>
-    <t>1057</t>
-  </si>
-  <si>
-    <t>1062.16507286</t>
-  </si>
-  <si>
-    <t>1091.54233593</t>
-  </si>
-  <si>
-    <t>1112.27503699</t>
-  </si>
-  <si>
-    <t>1135.8815726</t>
-  </si>
-  <si>
-    <t>1148.78442221</t>
-  </si>
-  <si>
-    <t>1174.62452835</t>
-  </si>
-  <si>
-    <t>1207.33362269</t>
-  </si>
-  <si>
-    <t>1248.44739719</t>
-  </si>
-  <si>
-    <t>1288.2119179</t>
-  </si>
-  <si>
-    <t>1323.23754074</t>
-  </si>
-  <si>
-    <t>1351.80714055</t>
-  </si>
-  <si>
-    <t>1384.45503555</t>
-  </si>
-  <si>
-    <t>1418.71032037</t>
-  </si>
-  <si>
-    <t>1459.31421995</t>
-  </si>
-  <si>
-    <t>1504.19716926</t>
-  </si>
-  <si>
-    <t>1560.28209146</t>
-  </si>
-  <si>
-    <t>1619.27516907</t>
-  </si>
-  <si>
-    <t>1685.93748214</t>
-  </si>
-  <si>
-    <t>1788.67444025</t>
-  </si>
-  <si>
-    <t>1819.96035323</t>
-  </si>
-  <si>
-    <t>1922.39112953</t>
+    <t>1245</t>
+  </si>
+  <si>
+    <t>1788</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1728</t>
+  </si>
+  <si>
+    <t>1916</t>
+  </si>
+  <si>
+    <t>2099</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1892</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2197</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2257</t>
+  </si>
+  <si>
+    <t>2270</t>
+  </si>
+  <si>
+    <t>2254</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>2158</t>
+  </si>
+  <si>
+    <t>2134</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2377</t>
+  </si>
+  <si>
+    <t>2235</t>
+  </si>
+  <si>
+    <t>2227</t>
+  </si>
+  <si>
+    <t>2319</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1878</t>
+  </si>
+  <si>
+    <t>1882</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>1929</t>
+  </si>
+  <si>
+    <t>1844</t>
+  </si>
+  <si>
+    <t>1820</t>
+  </si>
+  <si>
+    <t>1661</t>
+  </si>
+  <si>
+    <t>1487</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>1559</t>
+  </si>
+  <si>
+    <t>1575</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>1648</t>
+  </si>
+  <si>
+    <t>1685</t>
+  </si>
+  <si>
+    <t>1693</t>
+  </si>
+  <si>
+    <t>1742.62755579766</t>
+  </si>
+  <si>
+    <t>1771.60038628535</t>
+  </si>
+  <si>
+    <t>1791.11265526599</t>
+  </si>
+  <si>
+    <t>1813.6117444642</t>
+  </si>
+  <si>
+    <t>1856.57278201958</t>
+  </si>
+  <si>
+    <t>1907.93483958593</t>
+  </si>
+  <si>
+    <t>1964.91242818097</t>
+  </si>
+  <si>
+    <t>2017.98955294768</t>
+  </si>
+  <si>
+    <t>2066.74120191922</t>
+  </si>
+  <si>
+    <t>2100.29307054518</t>
+  </si>
+  <si>
+    <t>2143.10623922565</t>
+  </si>
+  <si>
+    <t>2192.0202661421</t>
+  </si>
+  <si>
+    <t>2256.81729672897</t>
+  </si>
+  <si>
+    <t>2329.5156743128</t>
+  </si>
+  <si>
+    <t>2411.28764907302</t>
+  </si>
+  <si>
+    <t>2503.95769706586</t>
+  </si>
+  <si>
+    <t>2553.16586239898</t>
+  </si>
+  <si>
+    <t>2725.78842608382</t>
+  </si>
+  <si>
+    <t>2793.87094487804</t>
+  </si>
+  <si>
+    <t>2946.03934323595</t>
+  </si>
+  <si>
+    <t>3283</t>
+  </si>
+  <si>
+    <t>3508</t>
+  </si>
+  <si>
+    <t>3683</t>
+  </si>
+  <si>
+    <t>3747</t>
+  </si>
+  <si>
+    <t>3809</t>
+  </si>
+  <si>
+    <t>3878</t>
   </si>
   <si>
     <t>Description</t>
@@ -2723,6 +2741,108 @@
         <v>69</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2738,50 +2858,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
